--- a/data/trans_camb/P16A04-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A04-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16A04-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A04-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,15</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,7; 6,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,69; 9,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,82; 7,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,83; 3,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,66; 1,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 3,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 3,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 4,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 4,27</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,61%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>177,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>242,12%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>287,37%</t>
         </is>
       </c>
     </row>
@@ -816,22 +816,22 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
+          <t>-82,82; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,09; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,75; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,48</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,73; 4,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,4; 1,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 2,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 3,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 2,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 2,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,67; 3,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 1,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,41; 1,49</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>200,6%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>134,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,02%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,76; 689,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,88; 234,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,7; 291,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,6; 334,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,88; 235,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,82; 209,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,35; 313,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,29; 135,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,57; 142,18</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 2,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,12; 0,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,92; 1,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,74; 4,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 1,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 2,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,24; 2,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; 0,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 1,29</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,6%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,87%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>119,28%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,91%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,96%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,28%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,87; 126,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,97; 42,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,85; 54,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,11; 333,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,08; 123,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,41; 187,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,86; 136,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,61; 44,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,57; 73,02</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,01; 3,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 1,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,18; 2,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,19; -0,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,57; 0,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,82; 0,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,59; 0,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,98; 0,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 1,21</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,96%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,11%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,6%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,8%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,66%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,64%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,65%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,19%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,36%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,98; 373,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,29; 170,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,76; 360,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,56; -17,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,08; 13,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,48; 22,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,43; 34,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,57; 5,5</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,57; 63,63</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,81</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 1,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,21; 2,55</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,48; 2,19</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 2,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,51; 2,08</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,1; 4,6</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 1,41</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 1,84</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,78; 3,05</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,79%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,37%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,84%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,21%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>138,29%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,49%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,71%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,55%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,81; 117,25</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,54; 197,6</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,15; 181,84</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,08; 154,19</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,58; 161,23</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,29; 339,67</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,73; 97,91</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,54; 127,56</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,85; 199,33</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,79</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 1,81</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,4; 0,92</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,16; 1,31</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,06; 1,47</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 0,81</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 1,95</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 1,44</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 0,65</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,22; 1,32</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,23%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,7%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,09%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,64%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,9%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,59%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,66; 117,55</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,8; 61,16</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,21; 87,03</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 81,2</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,23; 42,96</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,02; 103,21</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,56; 81,36</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,44; 36,41</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,19; 73,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A04-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A04-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>0,76</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,16</t>
+          <t>0,96; 4,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 9,0</t>
+          <t>-0,48; 2,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 7,99</t>
+          <t>-0,33; 2,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 3,61</t>
+          <t>-0,26; 3,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 1,91</t>
+          <t>-0,72; 2,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 3,72</t>
+          <t>-0,53; 1,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 3,97</t>
+          <t>0,93; 3,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,07; 4,71</t>
+          <t>-0,26; 1,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 4,27</t>
+          <t>-0,13; 1,63</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>236,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>64,97%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>75,87%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>74,13%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-44,05%</t>
+          <t>33,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>73,61%</t>
+          <t>40,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>177,08%</t>
+          <t>138,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>242,12%</t>
+          <t>45,85%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>287,37%</t>
+          <t>55,02%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,79; 760,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,72; 342,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,96; 407,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,75; 274,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,11; 216,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-82,82; —</t>
+          <t>-22,56; 192,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,32; 321,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-62,09; —</t>
+          <t>-19,31; 174,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-29,75; —</t>
+          <t>-10,29; 164,82</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,9</t>
+          <t>-1,09; 2,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,63</t>
+          <t>-2,12; 0,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 2,01</t>
+          <t>-2,51; 0,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 3,37</t>
+          <t>0,74; 4,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,43</t>
+          <t>-1,07; 1,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 2,01</t>
+          <t>-0,08; 2,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,37</t>
+          <t>0,24; 2,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 1,53</t>
+          <t>-1,1; 0,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,49</t>
+          <t>-1,19; 1,01</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>200,6%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,87%</t>
+          <t>-25,6%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,47%</t>
+          <t>-32,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>83,9%</t>
+          <t>119,28%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>47,17%</t>
+          <t>15,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,96%</t>
+          <t>59,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>134,87%</t>
+          <t>61,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26,32%</t>
+          <t>-7,96%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>32,02%</t>
+          <t>3,73%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,76; 689,94</t>
+          <t>-33,87; 126,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-74,88; 234,5</t>
+          <t>-60,97; 42,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-53,7; 291,7</t>
+          <t>-72,1; 30,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,6; 334,05</t>
+          <t>23,11; 333,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-48,88; 235,19</t>
+          <t>-43,08; 123,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,82; 209,44</t>
+          <t>-7,49; 191,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,35; 313,74</t>
+          <t>5,86; 136,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-38,29; 135,76</t>
+          <t>-39,61; 44,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-22,57; 142,18</t>
+          <t>-39,46; 56,74</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-0,15</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 2,25</t>
+          <t>0,01; 3,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 0,67</t>
+          <t>-1,24; 1,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,01</t>
+          <t>-0,21; 2,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,16</t>
+          <t>-4,19; -0,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 1,58</t>
+          <t>-3,57; 0,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 2,36</t>
+          <t>-3,46; 0,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,48</t>
+          <t>-1,59; 0,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 0,77</t>
+          <t>-1,98; 0,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,29</t>
+          <t>-1,51; 1,02</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>106,96%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-25,6%</t>
+          <t>-2,11%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-18,87%</t>
+          <t>80,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>119,28%</t>
+          <t>-60,8%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>-48,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>56,41%</t>
+          <t>-36,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>61,91%</t>
+          <t>-16,65%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-7,96%</t>
+          <t>-36,19%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>-5,74%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,87; 126,35</t>
+          <t>-4,98; 373,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-60,97; 42,44</t>
+          <t>-64,29; 170,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-57,85; 54,03</t>
+          <t>-23,25; 348,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,11; 333,24</t>
+          <t>-81,56; -17,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-43,08; 123,17</t>
+          <t>-74,08; 13,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 187,02</t>
+          <t>-73,53; 10,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,86; 136,76</t>
+          <t>-50,43; 34,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-39,61; 44,19</t>
+          <t>-63,57; 5,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-27,57; 73,02</t>
+          <t>-47,01; 46,61</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>1,6</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,01; 3,04</t>
+          <t>-1,13; 1,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,32</t>
+          <t>-0,21; 2,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 2,98</t>
+          <t>-0,5; 2,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,19; -0,64</t>
+          <t>-0,49; 2,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 0,15</t>
+          <t>-0,51; 2,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 0,65</t>
+          <t>0,73; 3,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 0,63</t>
+          <t>-0,36; 1,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 0,07</t>
+          <t>-0,07; 1,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,21</t>
+          <t>0,61; 2,7</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>106,96%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-2,11%</t>
+          <t>60,79%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>83,6%</t>
+          <t>49,01%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-60,8%</t>
+          <t>36,84%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-48,66%</t>
+          <t>38,21%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-28,64%</t>
+          <t>118,42%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-16,65%</t>
+          <t>23,49%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-36,19%</t>
+          <t>48,71%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>87,27%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 373,04</t>
+          <t>-51,81; 117,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-64,29; 170,44</t>
+          <t>-12,54; 197,6</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-20,76; 360,46</t>
+          <t>-23,21; 176,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-81,56; -17,55</t>
+          <t>-23,08; 154,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-74,08; 13,32</t>
+          <t>-23,58; 161,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-63,48; 22,76</t>
+          <t>25,92; 295,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-50,43; 34,32</t>
+          <t>-16,73; 97,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-63,57; 5,5</t>
+          <t>-5,54; 127,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-38,57; 63,63</t>
+          <t>26,12; 183,16</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>0,62</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,44</t>
+          <t>0,3; 1,81</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 2,55</t>
+          <t>-0,4; 0,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 2,19</t>
+          <t>-0,35; 1,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 2,04</t>
+          <t>-0,06; 1,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 2,08</t>
+          <t>-0,74; 0,81</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,6</t>
+          <t>-0,01; 1,71</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 1,41</t>
+          <t>0,31; 1,44</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 1,84</t>
+          <t>-0,37; 0,65</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,05</t>
+          <t>0,04; 1,13</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>58,23%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>60,79%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>49,37%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>36,84%</t>
+          <t>29,09%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>38,21%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>138,29%</t>
+          <t>37,93%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>23,49%</t>
+          <t>41,9%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>48,71%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>98,55%</t>
+          <t>30,94%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-51,81; 117,25</t>
+          <t>13,66; 117,55</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-12,54; 197,6</t>
+          <t>-19,8; 61,16</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,15; 181,84</t>
+          <t>-18,02; 79,48</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-23,08; 154,19</t>
+          <t>-2,11; 81,2</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-23,58; 161,23</t>
+          <t>-28,23; 42,96</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>38,29; 339,67</t>
+          <t>-0,71; 91,75</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 97,91</t>
+          <t>13,56; 81,36</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 127,56</t>
+          <t>-16,44; 36,41</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>30,85; 199,33</t>
+          <t>1,85; 64,01</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,04</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>1,01</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,84</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>0,3; 1,81</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,4; 0,92</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,16; 1,31</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,06; 1,47</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,74; 0,81</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>0,23; 1,95</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>0,31; 1,44</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-0,37; 0,65</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>0,22; 1,32</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>58,23%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>13,73%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>29,7%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>29,09%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>1,93%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>45,64%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>41,9%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>7,15%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>39,59%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>13,66; 117,55</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-19,8; 61,16</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-8,21; 87,03</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-2,11; 81,2</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-28,23; 42,96</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>8,02; 103,21</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>13,56; 81,36</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-16,44; 36,41</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>9,19; 73,45</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16A04-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A04-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,35</t>
+          <t>1,1; 4,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 2,15</t>
+          <t>-0,48; 2,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 2,34</t>
+          <t>-0,38; 2,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 3,0</t>
+          <t>-0,29; 3,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,19</t>
+          <t>-0,93; 1,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,88</t>
+          <t>-0,57; 1,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,2</t>
+          <t>0,86; 3,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 1,68</t>
+          <t>-0,29; 1,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 1,63</t>
+          <t>-0,13; 1,74</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,79; 760,58</t>
+          <t>40,78; 812,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-42,72; 342,5</t>
+          <t>-38,87; 360,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-35,96; 407,56</t>
+          <t>-28,1; 373,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,75; 274,25</t>
+          <t>-18,57; 278,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,11; 216,53</t>
+          <t>-41,15; 178,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,56; 192,24</t>
+          <t>-26,53; 175,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,32; 321,07</t>
+          <t>44,17; 337,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,31; 174,48</t>
+          <t>-20,45; 169,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 164,82</t>
+          <t>-11,07; 183,07</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 2,25</t>
+          <t>-1,1; 2,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 0,67</t>
+          <t>-2,21; 0,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 0,59</t>
+          <t>-2,59; 0,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,16</t>
+          <t>0,83; 3,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 1,58</t>
+          <t>-1,01; 1,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 2,41</t>
+          <t>-0,17; 2,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,48</t>
+          <t>0,28; 2,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 0,77</t>
+          <t>-1,11; 0,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 1,01</t>
+          <t>-0,97; 1,17</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-33,87; 126,35</t>
+          <t>-32,43; 107,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-60,97; 42,44</t>
+          <t>-63,28; 30,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-72,1; 30,85</t>
+          <t>-74,59; 27,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,11; 333,24</t>
+          <t>28,71; 311,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,08; 123,17</t>
+          <t>-42,11; 112,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 191,03</t>
+          <t>-10,84; 183,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,86; 136,76</t>
+          <t>8,97; 142,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,61; 44,19</t>
+          <t>-39,19; 47,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-39,46; 56,74</t>
+          <t>-36,36; 64,25</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,01; 3,04</t>
+          <t>-0,0; 3,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,32</t>
+          <t>-1,33; 1,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 2,97</t>
+          <t>-0,23; 2,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,19; -0,64</t>
+          <t>-3,98; -0,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 0,15</t>
+          <t>-3,58; -0,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 0,3</t>
+          <t>-3,31; 0,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 0,63</t>
+          <t>-1,52; 0,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 0,07</t>
+          <t>-2,02; 0,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 1,02</t>
+          <t>-1,48; 1,05</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 373,04</t>
+          <t>-11,64; 394,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-64,29; 170,44</t>
+          <t>-71,4; 138,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,25; 348,96</t>
+          <t>-22,69; 331,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-81,56; -17,55</t>
+          <t>-83,95; -21,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-74,08; 13,32</t>
+          <t>-76,51; 1,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-73,53; 10,33</t>
+          <t>-70,65; 11,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-50,43; 34,32</t>
+          <t>-48,99; 39,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-63,57; 5,5</t>
+          <t>-63,89; 8,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-47,01; 46,61</t>
+          <t>-48,03; 51,26</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,44</t>
+          <t>-1,08; 1,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 2,55</t>
+          <t>-0,23; 2,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 2,18</t>
+          <t>-0,51; 2,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 2,04</t>
+          <t>-0,53; 2,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 2,08</t>
+          <t>-0,49; 2,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,94</t>
+          <t>0,73; 4,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 1,41</t>
+          <t>-0,53; 1,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 1,84</t>
+          <t>-0,06; 1,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,7</t>
+          <t>0,57; 2,93</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-51,81; 117,25</t>
+          <t>-47,74; 118,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,54; 197,6</t>
+          <t>-11,78; 193,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-23,21; 176,41</t>
+          <t>-24,74; 156,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,08; 154,19</t>
+          <t>-24,28; 146,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,58; 161,23</t>
+          <t>-21,58; 164,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>25,92; 295,73</t>
+          <t>28,31; 337,29</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 97,91</t>
+          <t>-25,6; 88,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 127,56</t>
+          <t>-4,18; 134,07</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>26,12; 183,16</t>
+          <t>24,53; 200,26</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,81</t>
+          <t>0,25; 1,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 0,92</t>
+          <t>-0,47; 0,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 1,18</t>
+          <t>-0,41; 1,1</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 1,47</t>
+          <t>-0,15; 1,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,81</t>
+          <t>-0,75; 0,76</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 1,71</t>
+          <t>0,01; 1,65</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,44</t>
+          <t>0,31; 1,41</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 0,65</t>
+          <t>-0,41; 0,63</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,04; 1,13</t>
+          <t>0,07; 1,16</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>13,66; 117,55</t>
+          <t>11,46; 130,47</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 61,16</t>
+          <t>-22,72; 60,72</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-18,02; 79,48</t>
+          <t>-18,64; 74,33</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 81,2</t>
+          <t>-6,11; 71,1</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-28,23; 42,96</t>
+          <t>-28,31; 39,9</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 91,75</t>
+          <t>0,17; 86,98</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>13,56; 81,36</t>
+          <t>13,9; 80,93</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-16,44; 36,41</t>
+          <t>-18,29; 36,03</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1,85; 64,01</t>
+          <t>3,02; 65,44</t>
         </is>
       </c>
     </row>
